--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2850.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2850.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.173633866931403</v>
+        <v>1.299009561538696</v>
       </c>
       <c r="B1">
-        <v>2.229079466617149</v>
+        <v>1.80309784412384</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.235278606414795</v>
       </c>
       <c r="D1">
-        <v>2.325032681106104</v>
+        <v>2.977567911148071</v>
       </c>
       <c r="E1">
-        <v>1.225636379872607</v>
+        <v>1.134094715118408</v>
       </c>
     </row>
   </sheetData>
